--- a/Results.xlsx
+++ b/Results.xlsx
@@ -488,22 +488,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>-5.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.98</t>
+          <t>75.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16.64</t>
+          <t>14.35</t>
         </is>
       </c>
     </row>
@@ -525,22 +525,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-69.08</t>
+          <t>-68.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.28</t>
+          <t>-11.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30.70</t>
+          <t>24.11</t>
         </is>
       </c>
     </row>
@@ -562,12 +562,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-56.31</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.52</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -599,22 +599,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-51.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3.66</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-74.19</t>
+          <t>-73.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>60.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -673,22 +673,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-64.33</t>
+          <t>-64.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.57</t>
+          <t>69.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>74.41</t>
+          <t>74.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.64</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-65.78</t>
+          <t>62.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>62.97</t>
+          <t>62.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-128.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.02</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-54.01</t>
+          <t>-36.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>75.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-46.29</t>
+          <t>-28.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
